--- a/data/trans_dic/P1804_2016_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1804_2016_2023-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0444930241680989</v>
+        <v>0.04400650389024387</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06094218579360676</v>
+        <v>0.05867175147483864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04662624194566708</v>
+        <v>0.05014797301171071</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05885049699355941</v>
+        <v>0.05689229753759698</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02660207701383073</v>
+        <v>0.02754559133440981</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09239140026173538</v>
+        <v>0.09411543034113148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05059798322730561</v>
+        <v>0.04797804481030431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1159610036119493</v>
+        <v>0.1150014638064844</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1297562614966158</v>
+        <v>0.1408930810862248</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09640109834542225</v>
+        <v>0.09447647146554897</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07370601167855134</v>
+        <v>0.07362727441860495</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03236144454476722</v>
+        <v>0.03387559609727753</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04666846019114965</v>
+        <v>0.04382053976164534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08008195765328831</v>
+        <v>0.08150293683432962</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08470349452902112</v>
+        <v>0.08404770212612822</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06173180213883528</v>
+        <v>0.06161439241765583</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07391462572476029</v>
+        <v>0.0735235048759902</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07237000433461645</v>
+        <v>0.06917404726598173</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1212412926828706</v>
+        <v>0.1178229923883284</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1315992370601095</v>
+        <v>0.1328234306021369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1432311217615684</v>
+        <v>0.147621878746235</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09194582129735021</v>
+        <v>0.09140473158802356</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1202363734127076</v>
+        <v>0.1223605197524871</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.09003769101314185</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.07983302836643863</v>
+        <v>0.07983302836643864</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.06416684669415086</v>
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02580931078829403</v>
+        <v>0.02453019583906828</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03062905181438863</v>
+        <v>0.02956517499045213</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06712683681106081</v>
+        <v>0.07012768217264649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06208572007291762</v>
+        <v>0.06271581537754153</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05238469298811371</v>
+        <v>0.05103067301236241</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0520207949444274</v>
+        <v>0.05144249741160419</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05618907548522261</v>
+        <v>0.05498685292858229</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07091442582677911</v>
+        <v>0.06928039419147917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1146094375479822</v>
+        <v>0.1163520689700477</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09974833972884542</v>
+        <v>0.1015807320403353</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.0792264686089249</v>
+        <v>0.07849770614943505</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08021268173723264</v>
+        <v>0.07823902681458735</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.05178013069727679</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07033629177089151</v>
+        <v>0.0703362917708915</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.0622942235964592</v>
@@ -870,7 +870,7 @@
         <v>0.05704947071131861</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.07219428980209394</v>
+        <v>0.07219428980209396</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03514738682800844</v>
+        <v>0.0360049368113193</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05012127075155603</v>
+        <v>0.05073280037995392</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04682754237055807</v>
+        <v>0.04501687552191721</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05855358487823186</v>
+        <v>0.05929065200188129</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04442526453874453</v>
+        <v>0.04501671282582466</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05981068289535171</v>
+        <v>0.05925285900484136</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0702628231230889</v>
+        <v>0.07256735437139354</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09494773746397604</v>
+        <v>0.09571994141084135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08514494891174082</v>
+        <v>0.08448506674945726</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08920652721390988</v>
+        <v>0.09033520887270756</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07079206753808565</v>
+        <v>0.07073796253418212</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08879298940216976</v>
+        <v>0.08633884727894986</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.1079297989432868</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08452274999284716</v>
+        <v>0.08452274999284719</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.09402354851033801</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05540719081092333</v>
+        <v>0.05457397263654243</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.05392319870114014</v>
+        <v>0.05405718287547734</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.07825257392694786</v>
+        <v>0.08055342610958495</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06759483915586337</v>
+        <v>0.06917872705053768</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.07622782550940656</v>
+        <v>0.07691696465088028</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06542737364185433</v>
+        <v>0.06508844804889283</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1052927333745702</v>
+        <v>0.10605751104312</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09629868833418782</v>
+        <v>0.09495727847810695</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1394493214203233</v>
+        <v>0.1429291350960136</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1029675608661801</v>
+        <v>0.1034027189380581</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1154100183979915</v>
+        <v>0.1165853907019833</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09378170382679601</v>
+        <v>0.09205056571773326</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.1152119526407629</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.08182617537964153</v>
+        <v>0.0818261753796415</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.113454644553607</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07799434333684759</v>
+        <v>0.08115184328125624</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06166515418502605</v>
+        <v>0.05964197062206913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08398966761772643</v>
+        <v>0.08691938462110164</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06607599918032568</v>
+        <v>0.06203121222095417</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.09164072420633344</v>
+        <v>0.090495786453734</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06823169960415917</v>
+        <v>0.06894884258806754</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1485122910594208</v>
+        <v>0.1534289756077727</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1078335397889313</v>
+        <v>0.1058761831221037</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1508189152340803</v>
+        <v>0.156226382124074</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1045699137614932</v>
+        <v>0.1016986076173922</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1405708194747699</v>
+        <v>0.1400195614521522</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09777625070033147</v>
+        <v>0.09708239788882055</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.1304368809237283</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.08014149786593074</v>
+        <v>0.08014149786593072</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06103358615123964</v>
+        <v>0.06164975349059706</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04843501021224719</v>
+        <v>0.04904251790737364</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1155209306771439</v>
+        <v>0.1170968003144983</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06703727434417847</v>
+        <v>0.06921365188854806</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1034506489019519</v>
+        <v>0.1024061583761747</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06636759373289068</v>
+        <v>0.06592010401308969</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1281990046327974</v>
+        <v>0.1277658768972818</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0959812225842708</v>
+        <v>0.09299644024198413</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2021668186834586</v>
+        <v>0.2022052015837504</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1094059010941037</v>
+        <v>0.1088763829331582</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.160963090493095</v>
+        <v>0.1625856193781727</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0987227255596307</v>
+        <v>0.09643609426623691</v>
       </c>
     </row>
     <row r="25">
@@ -1186,7 +1186,7 @@
         <v>0.06295446880426407</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.061868615888674</v>
+        <v>0.06186861588867398</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.09928202700589622</v>
@@ -1198,7 +1198,7 @@
         <v>0.08151140115277844</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.07387765353324641</v>
+        <v>0.07387765353324639</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05498043968550995</v>
+        <v>0.05441634966269449</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.05360401741350358</v>
+        <v>0.05295980355964005</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.08871404516768384</v>
+        <v>0.08940515567537885</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07637869879145576</v>
+        <v>0.07754675012758683</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0743235330691428</v>
+        <v>0.07502769803624165</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06792674201742223</v>
+        <v>0.0675868384995318</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.0722923529680108</v>
+        <v>0.07112300757287141</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07325562295129187</v>
+        <v>0.07176252333667803</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1100030629552872</v>
+        <v>0.1101466697517541</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.09352711328986898</v>
+        <v>0.09436385428623817</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.08815327363210426</v>
+        <v>0.08886110363964948</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08061414841294033</v>
+        <v>0.08047040195165273</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18663</v>
+        <v>18459</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>24118</v>
+        <v>23220</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>16687</v>
+        <v>17947</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>47976</v>
+        <v>46380</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>20369</v>
+        <v>21091</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>38755</v>
+        <v>39478</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20634</v>
+        <v>19565</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>45892</v>
+        <v>45512</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>46438</v>
+        <v>50424</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>78588</v>
+        <v>77019</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>56435</v>
+        <v>56375</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19109</v>
+        <v>20003</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>22256</v>
+        <v>20898</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>45130</v>
+        <v>45930</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>42366</v>
+        <v>42038</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>71241</v>
+        <v>71105</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72219</v>
+        <v>71837</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>42734</v>
+        <v>40847</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>57819</v>
+        <v>56189</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>74162</v>
+        <v>74852</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>71639</v>
+        <v>73835</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>106109</v>
+        <v>105485</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>117478</v>
+        <v>119553</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17269</v>
+        <v>16413</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>19016</v>
+        <v>18355</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>44397</v>
+        <v>46381</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>38626</v>
+        <v>39018</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>69697</v>
+        <v>67895</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>64661</v>
+        <v>63942</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37596</v>
+        <v>36792</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>44026</v>
+        <v>43012</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>75801</v>
+        <v>76954</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>62057</v>
+        <v>63197</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>105409</v>
+        <v>104440</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>99702</v>
+        <v>97249</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>22707</v>
+        <v>23261</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>35116</v>
+        <v>35544</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>30395</v>
+        <v>29219</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>43147</v>
+        <v>43690</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>57536</v>
+        <v>58302</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>85978</v>
+        <v>85176</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>45393</v>
+        <v>46882</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>66522</v>
+        <v>67063</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>55266</v>
+        <v>54837</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>65735</v>
+        <v>66567</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>91685</v>
+        <v>91615</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>127640</v>
+        <v>124112</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>26480</v>
+        <v>26082</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32858</v>
+        <v>32940</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>38880</v>
+        <v>40023</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>41073</v>
+        <v>42035</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>74304</v>
+        <v>74976</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>79624</v>
+        <v>79211</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>50321</v>
+        <v>50687</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>58679</v>
+        <v>57862</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>69285</v>
+        <v>71014</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>62566</v>
+        <v>62831</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>112498</v>
+        <v>113644</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>114130</v>
+        <v>112024</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>26076</v>
+        <v>27131</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>25103</v>
+        <v>24279</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>31728</v>
+        <v>32835</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>29018</v>
+        <v>27242</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>65257</v>
+        <v>64441</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>57741</v>
+        <v>58348</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>49652</v>
+        <v>51296</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>43897</v>
+        <v>43100</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>56974</v>
+        <v>59016</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>45924</v>
+        <v>44663</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>100099</v>
+        <v>99707</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>82743</v>
+        <v>82156</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15686</v>
+        <v>15844</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>15024</v>
+        <v>15213</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>46228</v>
+        <v>46859</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>31106</v>
+        <v>32116</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>67984</v>
+        <v>67298</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>51383</v>
+        <v>51036</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>32947</v>
+        <v>32836</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29773</v>
+        <v>28847</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>80901</v>
+        <v>80916</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>50766</v>
+        <v>50520</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>105780</v>
+        <v>106846</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>76432</v>
+        <v>74662</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>186623</v>
+        <v>184708</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>189370</v>
+        <v>187094</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>314451</v>
+        <v>316900</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>284731</v>
+        <v>289086</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>515723</v>
+        <v>520609</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>493192</v>
+        <v>490724</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>245386</v>
+        <v>241416</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>258795</v>
+        <v>253520</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>389910</v>
+        <v>390419</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>348659</v>
+        <v>351778</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>611686</v>
+        <v>616598</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>585311</v>
+        <v>584268</v>
       </c>
     </row>
     <row r="36">
